--- a/server/file/Example-book-format.xlsx
+++ b/server/file/Example-book-format.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Tahun Terbit</t>
-  </si>
-  <si>
-    <t>Jumlah Peminjam</t>
   </si>
   <si>
     <t>Deskripsi/Sinopsis Buku</t>
@@ -125,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -141,11 +138,6 @@
       <b/>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -204,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -220,25 +212,22 @@
     <xf quotePrefix="1" borderId="1" fillId="2" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf quotePrefix="1" borderId="1" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -457,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="20" width="10.56"/>
+    <col customWidth="1" min="1" max="19" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -482,13 +471,13 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -506,171 +495,160 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1.0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6">
-        <v>2010.0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6">
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="5">
         <v>1.0</v>
       </c>
-      <c r="I2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" ht="408.0" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2.0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5">
+        <v>2006.0</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6">
-        <v>2006.0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2005.0</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="5">
         <v>1.0</v>
       </c>
-      <c r="I3" s="8">
-        <v>2005.0</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
